--- a/CSVs/TableS8.xlsx
+++ b/CSVs/TableS8.xlsx
@@ -462,13 +462,13 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>149.6336545455088</v>
+        <v>149.6336545455124</v>
       </c>
       <c r="D2">
-        <v>3.217101490848535e-33</v>
+        <v>3.21710149084265e-33</v>
       </c>
       <c r="E2">
-        <v>5.147362385357655e-32</v>
+        <v>5.14736238534824e-32</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -504,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0.0002781562549324379</v>
+        <v>0.0002781562549322159</v>
       </c>
       <c r="H3">
-        <v>0.0003167246693779662</v>
+        <v>0.0003167246693777134</v>
       </c>
       <c r="I3">
         <v>1942.193749502077</v>
@@ -534,10 +534,10 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>5.808620990332969e-05</v>
+        <v>5.808620990344071e-05</v>
       </c>
       <c r="H4">
-        <v>6.138507908537897e-05</v>
+        <v>6.13850790854963e-05</v>
       </c>
       <c r="I4">
         <v>7794.113966059351</v>
@@ -564,10 +564,10 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0.005253234615318902</v>
+        <v>0.005253234615319236</v>
       </c>
       <c r="H5">
-        <v>0.007025487834244669</v>
+        <v>0.007025487834245114</v>
       </c>
       <c r="I5">
         <v>1e-07</v>
@@ -596,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>0.0001767315294005645</v>
+        <v>0.0001767315294006755</v>
       </c>
       <c r="H6">
-        <v>0.0002066972529796424</v>
+        <v>0.0002066972529797722</v>
       </c>
       <c r="I6">
         <v>10000000</v>
@@ -626,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>0.0003888036815951068</v>
+        <v>0.0003888036815955509</v>
       </c>
       <c r="H7">
-        <v>0.0004429102597458286</v>
+        <v>0.0004429102597463346</v>
       </c>
       <c r="I7">
         <v>10000000</v>
@@ -656,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>0.001125611143775629</v>
+        <v>0.001125611143775962</v>
       </c>
       <c r="H8">
-        <v>0.001190954256575526</v>
+        <v>0.001190954256575879</v>
       </c>
       <c r="I8">
         <v>182035.8085329297</v>
@@ -674,28 +674,28 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>10.50305582661167</v>
+        <v>10.50305582661531</v>
       </c>
       <c r="D9">
-        <v>0.03275492281269533</v>
+        <v>0.03275492281264527</v>
       </c>
       <c r="E9">
-        <v>0.5240787650031253</v>
+        <v>0.5240787650023243</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9">
-        <v>0.0007210878259726883</v>
+        <v>0.0007210878259725773</v>
       </c>
       <c r="H9">
-        <v>0.0009652879154781144</v>
+        <v>0.0009652879154779657</v>
       </c>
       <c r="I9">
-        <v>620907.7285945365</v>
+        <v>620907.7285934071</v>
       </c>
       <c r="J9">
-        <v>1.610545261312116e-06</v>
+        <v>1.610545261315045e-06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -706,28 +706,28 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>56.9456491118508</v>
+        <v>56.94564911185444</v>
       </c>
       <c r="D10">
-        <v>1.270080271392505e-11</v>
+        <v>1.270080271390273e-11</v>
       </c>
       <c r="E10">
-        <v>2.032128434228008e-10</v>
+        <v>2.032128434224438e-10</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>0.004485364266892833</v>
+        <v>0.004485364266892611</v>
       </c>
       <c r="H10">
-        <v>0.005244796351414872</v>
+        <v>0.005244796351414612</v>
       </c>
       <c r="I10">
-        <v>5.106767327147249e-05</v>
+        <v>5.106767327137959e-05</v>
       </c>
       <c r="J10">
-        <v>19581.85944137427</v>
+        <v>19581.85944140989</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -748,10 +748,10 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>0.000313686906806665</v>
+        <v>0.0003136869068063319</v>
       </c>
       <c r="H11">
-        <v>0.0003571819079555477</v>
+        <v>0.0003571819079551683</v>
       </c>
       <c r="I11">
         <v>10000000</v>
@@ -778,10 +778,10 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>0.0006015851206059297</v>
+        <v>0.0006015851206057077</v>
       </c>
       <c r="H12">
-        <v>0.0006357507275210496</v>
+        <v>0.0006357507275208149</v>
       </c>
       <c r="I12">
         <v>3727222.869182711</v>
@@ -808,10 +808,10 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0.002106533376756259</v>
+        <v>0.002106533376756148</v>
       </c>
       <c r="H13">
-        <v>0.002817202294311202</v>
+        <v>0.002817202294311054</v>
       </c>
       <c r="I13">
         <v>26.52247916849767</v>
@@ -828,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.4909310994335101</v>
+        <v>0.4909310994371481</v>
       </c>
       <c r="D14">
-        <v>0.9743778110652284</v>
+        <v>0.9743778110648791</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -870,10 +870,10 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <v>0.000479306304915883</v>
+        <v>0.0004793063049155499</v>
       </c>
       <c r="H15">
-        <v>0.0005457656560415325</v>
+        <v>0.0005457656560411531</v>
       </c>
       <c r="I15">
         <v>6080962.478125984</v>
@@ -930,10 +930,10 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>0.0002058770348635219</v>
+        <v>0.000205877034863633</v>
       </c>
       <c r="H17">
-        <v>0.0002753325731095744</v>
+        <v>0.0002753325731097229</v>
       </c>
       <c r="I17">
         <v>10000000</v>
@@ -950,13 +950,13 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>17.38956743670133</v>
+        <v>17.38956743670497</v>
       </c>
       <c r="D18">
-        <v>0.001623459783058667</v>
+        <v>0.001623459783056019</v>
       </c>
       <c r="E18">
-        <v>0.02597535652893868</v>
+        <v>0.0259753565288963</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -968,10 +968,10 @@
         <v>0.001598701460530248</v>
       </c>
       <c r="I18">
-        <v>19844.49583266461</v>
+        <v>19844.49583262851</v>
       </c>
       <c r="J18">
-        <v>5.039180679783113e-05</v>
+        <v>5.039180679792279e-05</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -992,10 +992,10 @@
         <v>4</v>
       </c>
       <c r="G19">
-        <v>0.003308101079682157</v>
+        <v>0.003308101079681935</v>
       </c>
       <c r="H19">
-        <v>0.003766793671369055</v>
+        <v>0.003766793671368801</v>
       </c>
       <c r="I19">
         <v>0.1535583997426755</v>
